--- a/Datasets/VarCovid_provincias.xlsx
+++ b/Datasets/VarCovid_provincias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/Library/CloudStorage/GoogleDrive-davidperez202223@gmail.com/Mi unidad/4th Quarter/INE/Datasets/Datos/David/Nuevos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0F5381-B5D2-1145-9467-3C35FE20BD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2433F13-23B6-064E-BBEA-2009142CB186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" activeTab="2" xr2:uid="{84092C75-0CD4-4A7E-B451-51E83AD9A219}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{84092C75-0CD4-4A7E-B451-51E83AD9A219}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="162">
   <si>
     <t>provincia</t>
   </si>
@@ -546,12 +546,131 @@
   <si>
     <t>Enlace a datos</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Técnica de estudio :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Procedimiento Cluster Jerárquico/ K-Means de las **provincias** en función a las variables **1Ola** y **2Ola**.:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Hacer un análisis exploratorio.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Ver si hay NA’s y si es necesario escalar los datos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.Plantear variables sobre las que se van a hacer los cluster.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4.Interpretar resultados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.Ver métodos Elbrow y Silhouette si hay otro número óptimo de clusters y en ese caso repetir el estudio.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +736,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1252,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C84E503-A981-4AF3-8AD0-6926AFDCF84D}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1343,9 +1467,93 @@
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
     </row>
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G11"/>
+    <mergeCell ref="B13:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4352,7 +4560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEB02CF-1C68-4843-956F-3A0BE16AE8CE}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
